--- a/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_PM_APFA_DeleteProfile.xlsx
+++ b/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_PM_APFA_DeleteProfile.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdighe\Documents\MDOT\rstars\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kdeepika\Documents\Rstars-Automation\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D295427-3BB5-43E9-A250-EF3A51D31E60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FAB4D0D-EAE8-4D7B-946E-410871E9D57D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10" yWindow="380" windowWidth="19190" windowHeight="10190" xr2:uid="{27A31DFA-24AF-4BE1-9FF9-9403A37291B8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{27A31DFA-24AF-4BE1-9FF9-9403A37291B8}"/>
   </bookViews>
   <sheets>
     <sheet name="TestSteps" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
   <si>
     <t>Keyword</t>
   </si>
@@ -524,21 +524,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E68ADD78-5E97-442A-9239-32BA9120CDAC}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -558,7 +558,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -572,7 +572,7 @@
       <c r="E2" s="2"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -586,7 +586,7 @@
       <c r="E3" s="2"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -600,7 +600,7 @@
       <c r="E4" s="2"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -614,7 +614,7 @@
       <c r="E5" s="2"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -628,7 +628,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -642,7 +642,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -663,22 +663,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{155C1548-3305-4173-92A7-939CD1DB0F71}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="55.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.6328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -695,7 +695,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -707,6 +707,19 @@
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="3">
+        <v>123456789</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
